--- a/2017年10月第2周技术中心周简报-芶凌.xlsx
+++ b/2017年10月第2周技术中心周简报-芶凌.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>本周重点工作完成情况</t>
   </si>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>资管测试配合,bug修正</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理费新增提现时间</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定管理费数据结构</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <name val="Microsoft YaHei"/>
@@ -169,6 +177,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -371,7 +394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,68 +548,74 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -896,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -917,7 +946,7 @@
     <col min="11" max="11" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.1" customHeight="1">
+    <row r="1" spans="1:11" ht="32.1" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -950,268 +979,316 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61"/>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="66"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="65"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="17"/>
       <c r="I2" s="50">
         <v>43021</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="62"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="66"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="49" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="66"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="17"/>
       <c r="I3" s="50">
         <v>43021</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="62"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="66"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="41" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="17"/>
       <c r="I4" s="50">
         <v>43021</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="62"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="66"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="17"/>
       <c r="I5" s="50">
         <v>43021</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="58"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="51"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="71" t="s">
+      <c r="J5" s="63"/>
+      <c r="K5" s="53"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="66"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="51" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="67"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="17"/>
       <c r="I6" s="50">
         <v>43021</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="58"/>
-    </row>
-    <row r="7" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="63" t="s">
+      <c r="J6" s="63"/>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" s="72" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="66"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="61"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="50">
+        <v>43021</v>
+      </c>
+      <c r="J7" s="63"/>
+      <c r="K7" s="53"/>
+    </row>
+    <row r="8" spans="1:11" s="72" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="66"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="50">
+        <v>43021</v>
+      </c>
+      <c r="J8" s="63"/>
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="53"/>
+    </row>
+    <row r="10" spans="1:11" s="48" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="47"/>
-    </row>
-    <row r="8" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A9" s="52" t="s">
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="47"/>
+    </row>
+    <row r="11" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:11" ht="42.75" customHeight="1">
+      <c r="A12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="20" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="15" t="s">
+      <c r="I12" s="33"/>
+      <c r="J12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-    </row>
-    <row r="13" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A13" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A14" s="51"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A13" s="66"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A14" s="66"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="39"/>
-    </row>
-    <row r="15" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="27"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="68"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="39"/>
-    </row>
-    <row r="16" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="39"/>
-    </row>
-    <row r="17" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" ht="42.75" customHeight="1">
+      <c r="A16" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A17" s="66"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A18" s="66"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A19" s="66"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="1:12" ht="42.75" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="40"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="K2:K9"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="J17:J19"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
